--- a/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>9.197297995591953</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.871055504784977</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2031069173733471</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.01468661452215514</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007831654828658027</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,33 +451,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4658437264055664</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>4.069079589273798</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>7.938474475033388</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.591560302197195</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.17286735138849</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.01324644702158118</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008016253721933491</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -486,33 +498,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4050088615554017</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>3.790594410028774</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7.199540872357318</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.427165352303348</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1550567212014329</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01240292858316927</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008130406600971494</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -527,33 +545,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.369324184667974</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>3.626646709494139</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6.905541464881708</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.361663201961676</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1479551905583207</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01206721851175718</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008177242979513261</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -568,33 +592,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3551341206593861</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>3.561326467513396</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6.857116009878837</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.350868158322328</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1467845527346157</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.01201190210222514</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008185042348613639</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -609,33 +639,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3527973425004092</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>3.55056268556001</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7.195548768271237</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.426276323039701</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1549603546288694</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.01239837119231435</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008131036825046417</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -650,33 +686,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.369131469827451</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>3.625760085060818</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>8.755262679487487</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.77297378331599</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1925010131179903</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.01418010973326655</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000789521231232594</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -691,33 +733,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4444770579246438</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>3.971411369619375</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>12.16446170695735</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.528607616183194</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2740424497158074</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.01812741580665733</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007432670612697543</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -732,33 +780,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.6093019806011455</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>4.720958936677363</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>15.03418446640001</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3.164738371607029</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3423763341184269</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.02155713710500429</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007080654776235118</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -773,33 +827,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.7479492176882871</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>5.344697015080271</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>16.4701578113237</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3.48357713510768</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3765113245461578</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.02332292511162493</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006913766735868906</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -814,33 +874,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.8172396720823087</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>5.654122955528635</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>17.03915682171419</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3.610056876648912</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3900298796892798</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.02403309755129435</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006849081833060162</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -855,33 +921,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.8446746633099167</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>5.776215181158079</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>16.91535877629724</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3.582530924529635</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3870889258722769</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.0238780532194145</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006863089629687416</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -896,33 +968,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.8387066940679802</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>5.749676708960862</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>16.51641762950453</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3.493856736881696</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3776105241893077</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.02338043168941439</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006908478612803721</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -937,33 +1015,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.8194706239554534</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>5.664060176715509</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>16.27557609491203</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3.440344299777109</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3718875019727363</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.02308147504619384</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006936067988573915</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -978,33 +1062,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.8078547700087597</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>5.612302881597657</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>14.94346333777594</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3.144609951615621</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.340218726215241</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.02144678367726804</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007091385655117184</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1019,33 +1109,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.7435693148982665</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>5.32508661967978</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>14.16355378978301</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.971631630735885</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3216641472275654</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.02050363120929521</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007184628620109032</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1060,33 +1156,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.705906351754976</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>5.156204073282368</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>13.72675959362289</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2.874795934791507</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3112672572702735</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01997957206542367</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007237663472791964</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1101,33 +1203,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.684805834368774</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>5.061390978574593</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>13.58073451527832</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.842428427704533</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.307790534512236</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.01980501099169096</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007255530501121765</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1142,33 +1250,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.6777506784364107</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>5.029657696574645</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>14.24531730561739</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.989761411943675</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3236099003522952</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.02060205452288244</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007174767556930028</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1183,33 +1297,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.7098556208465396</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>5.17393397513689</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>16.63284695544553</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3.519731508823611</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3803769414400193</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.02352534638785997</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006895192332389685</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1224,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.8250852421657839</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>5.689062084773127</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>18.34551563726507</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3.900799302586165</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.4210552057573835</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.02568800203920674</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006703380816630695</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1265,33 +1391,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.9076102920257654</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>6.055387086110215</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>17.41458881256358</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3.693559398643629</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3989477252144127</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.02450513476653882</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006806819237783799</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1306,33 +1438,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.8627693150350808</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>5.85660941547917</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>14.20831637912488</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2.981556906725189</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3227293938327449</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.02055750156008251</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007179227488629526</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1347,33 +1485,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.7080684565599284</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>5.16591127075344</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>11.19152721727858</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2.313070477502322</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.250823324482127</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.01698958689309293</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.000755886372523128</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1388,9 +1532,15 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5622636739675499</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4.507949951378947</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.197297995591953</v>
+        <v>3.828850977320883</v>
       </c>
       <c r="C2">
-        <v>1.871055504784977</v>
+        <v>1.503516952450525</v>
       </c>
       <c r="D2">
-        <v>0.2031069173733471</v>
+        <v>0.2124737290188818</v>
       </c>
       <c r="E2">
-        <v>0.01468661452215514</v>
+        <v>1.484308278986177</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007831654828658027</v>
+        <v>1.570812539150893</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.8183043283216307</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5635097143352468</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4658437264055664</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.069079589273798</v>
+        <v>0.401785265663833</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.938474475033388</v>
+        <v>3.301734406944661</v>
       </c>
       <c r="C3">
-        <v>1.591560302197195</v>
+        <v>1.294350097362496</v>
       </c>
       <c r="D3">
-        <v>0.17286735138849</v>
+        <v>0.1829765547145144</v>
       </c>
       <c r="E3">
-        <v>0.01324644702158118</v>
+        <v>1.26542847422462</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008016253721933491</v>
+        <v>1.363869410864908</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.7310264583922788</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.507564693055599</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4050088615554017</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.790594410028774</v>
+        <v>0.4468964314632444</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.199540872357318</v>
+        <v>2.982472697588094</v>
       </c>
       <c r="C4">
-        <v>1.427165352303348</v>
+        <v>1.168063875972337</v>
       </c>
       <c r="D4">
-        <v>0.1550567212014329</v>
+        <v>0.1652247485531575</v>
       </c>
       <c r="E4">
-        <v>0.01240292858316927</v>
+        <v>1.135005326570251</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008130406600971494</v>
+        <v>1.241762795754227</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6800137447163763</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4753883163782788</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.369324184667974</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.626646709494139</v>
+        <v>0.4759592540316171</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.905541464881708</v>
+        <v>2.853284043382416</v>
       </c>
       <c r="C5">
-        <v>1.361663201961676</v>
+        <v>1.117046357770732</v>
       </c>
       <c r="D5">
-        <v>0.1479551905583207</v>
+        <v>0.1580680273238357</v>
       </c>
       <c r="E5">
-        <v>0.01206721851175718</v>
+        <v>1.082689019018389</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008177242979513261</v>
+        <v>1.193090640438044</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6597995161552319</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4627624359503741</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3551341206593861</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.561326467513396</v>
+        <v>0.488126373567124</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.857116009878837</v>
+        <v>2.831882306628927</v>
       </c>
       <c r="C6">
-        <v>1.350868158322328</v>
+        <v>1.108599271339756</v>
       </c>
       <c r="D6">
-        <v>0.1467845527346157</v>
+        <v>0.1568839670168103</v>
       </c>
       <c r="E6">
-        <v>0.01201190210222514</v>
+        <v>1.074047721324362</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008185042348613639</v>
+        <v>1.185069987393007</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.656475600165578</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4606936351486794</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3527973425004092</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.55056268556001</v>
+        <v>0.4901657425643329</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.195548768271237</v>
+        <v>2.98072695508921</v>
       </c>
       <c r="C7">
-        <v>1.426276323039701</v>
+        <v>1.16737415015217</v>
       </c>
       <c r="D7">
-        <v>0.1549603546288694</v>
+        <v>0.1651279340229621</v>
       </c>
       <c r="E7">
-        <v>0.01239837119231435</v>
+        <v>1.134296605960373</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008131036825046417</v>
+        <v>1.24110218229697</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6797388972168505</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.475216145941971</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.369131469827451</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.625760085060818</v>
+        <v>0.4761220571629758</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.755262679487487</v>
+        <v>3.646068599934267</v>
       </c>
       <c r="C8">
-        <v>1.77297378331599</v>
+        <v>1.430891651534409</v>
       </c>
       <c r="D8">
-        <v>0.1925010131179903</v>
+        <v>0.2022201428599715</v>
       </c>
       <c r="E8">
-        <v>0.01418010973326655</v>
+        <v>1.407907863648092</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.000789521231232594</v>
+        <v>1.498328370029782</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7876291895471468</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5437302364416183</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4444770579246438</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.971411369619375</v>
+        <v>0.4170441738666502</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.16446170695735</v>
+        <v>4.995492276981338</v>
       </c>
       <c r="C9">
-        <v>2.528607616183194</v>
+        <v>1.96951700504826</v>
       </c>
       <c r="D9">
-        <v>0.2740424497158074</v>
+        <v>0.2784830365707052</v>
       </c>
       <c r="E9">
-        <v>0.01812741580665733</v>
+        <v>1.984742342865189</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007432670612697543</v>
+        <v>2.050284992117128</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.023451049925825</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6984411197734275</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6093019806011455</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.720958936677363</v>
+        <v>0.3130019412901768</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.03418446640001</v>
+        <v>6.030228483225812</v>
       </c>
       <c r="C10">
-        <v>3.164738371607029</v>
+        <v>2.386553990313928</v>
       </c>
       <c r="D10">
-        <v>0.3423763341184269</v>
+        <v>0.3377457901929972</v>
       </c>
       <c r="E10">
-        <v>0.02155713710500429</v>
+        <v>2.447883519562382</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007080654776235118</v>
+        <v>2.498139034052969</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.217688845052237</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.8295550888530556</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7479492176882871</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.344697015080271</v>
+        <v>0.2453442042899132</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.4701578113237</v>
+        <v>6.514764395375607</v>
       </c>
       <c r="C11">
-        <v>3.48357713510768</v>
+        <v>2.583109394735573</v>
       </c>
       <c r="D11">
-        <v>0.3765113245461578</v>
+        <v>0.3657003996901977</v>
       </c>
       <c r="E11">
-        <v>0.02332292511162493</v>
+        <v>2.671372427062281</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006913766735868906</v>
+        <v>2.714737835408073</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.312309192463943</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.8943705467569742</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8172396720823087</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.654122955528635</v>
+        <v>0.2169027982381646</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.03915682171419</v>
+        <v>6.700683192549491</v>
       </c>
       <c r="C12">
-        <v>3.610056876648912</v>
+        <v>2.658751294945944</v>
       </c>
       <c r="D12">
-        <v>0.3900298796892798</v>
+        <v>0.3764587482593242</v>
       </c>
       <c r="E12">
-        <v>0.02403309755129435</v>
+        <v>2.758297260801001</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006849081833060162</v>
+        <v>2.798984563900376</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.349214137579594</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.9197992990038415</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8446746633099167</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.776215181158079</v>
+        <v>0.2065128467947748</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.91535877629724</v>
+        <v>6.66052589991159</v>
       </c>
       <c r="C13">
-        <v>3.582530924529635</v>
+        <v>2.642402524396687</v>
       </c>
       <c r="D13">
-        <v>0.3870889258722769</v>
+        <v>0.3741335475641421</v>
       </c>
       <c r="E13">
-        <v>0.0238780532194145</v>
+        <v>2.739466058699605</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006863089629687416</v>
+        <v>2.780734797591975</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.341215089233003</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9142808897370713</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8387066940679802</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.749676708960862</v>
+        <v>0.2087328090763396</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.51641762950453</v>
+        <v>6.530008372629084</v>
       </c>
       <c r="C14">
-        <v>3.493856736881696</v>
+        <v>2.589306779329149</v>
       </c>
       <c r="D14">
-        <v>0.3776105241893077</v>
+        <v>0.366581850661106</v>
       </c>
       <c r="E14">
-        <v>0.02338043168941439</v>
+        <v>2.678474835897916</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006908478612803721</v>
+        <v>2.721621858495922</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.315322739355821</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8964439555743837</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8194706239554534</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.664060176715509</v>
+        <v>0.2160401092436688</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.27557609491203</v>
+        <v>6.450394496378976</v>
       </c>
       <c r="C15">
-        <v>3.440344299777109</v>
+        <v>2.556949242670044</v>
       </c>
       <c r="D15">
-        <v>0.3718875019727363</v>
+        <v>0.3619796483879725</v>
       </c>
       <c r="E15">
-        <v>0.02308147504619384</v>
+        <v>2.641429955390947</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006936067988573915</v>
+        <v>2.685715643099229</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.299608555396219</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.8856381459318925</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8078547700087597</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.612302881597657</v>
+        <v>0.2205670015719559</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.94346333777594</v>
+        <v>5.998877561174595</v>
       </c>
       <c r="C16">
-        <v>3.144609951615621</v>
+        <v>2.373864731776223</v>
       </c>
       <c r="D16">
-        <v>0.340218726215241</v>
+        <v>0.3359413228926371</v>
       </c>
       <c r="E16">
-        <v>0.02144678367726804</v>
+        <v>2.433572140091485</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007091385655117184</v>
+        <v>2.484273225250661</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.211645312598648</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8254347694748461</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7435693148982665</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.32508661967978</v>
+        <v>0.2472535367511779</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.16355378978301</v>
+        <v>5.72572166373493</v>
       </c>
       <c r="C17">
-        <v>2.971631630735885</v>
+        <v>2.263449136910992</v>
       </c>
       <c r="D17">
-        <v>0.3216641472275654</v>
+        <v>0.3202420297952528</v>
       </c>
       <c r="E17">
-        <v>0.02050363120929521</v>
+        <v>2.309629807120714</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007184628620109032</v>
+        <v>2.364236372086395</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.159400250767334</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.78991884123608</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.705906351754976</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.156204073282368</v>
+        <v>0.2642523771568697</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.72675959362289</v>
+        <v>5.569880241986368</v>
       </c>
       <c r="C18">
-        <v>2.874795934791507</v>
+        <v>2.200569302812937</v>
       </c>
       <c r="D18">
-        <v>0.3112672572702735</v>
+        <v>0.3113039056913891</v>
       </c>
       <c r="E18">
-        <v>0.01997957206542367</v>
+        <v>2.239514355805937</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007237663472791964</v>
+        <v>2.296379437393398</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.129927452363887</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7699679554742289</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.684805834368774</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.061390978574593</v>
+        <v>0.2742465211331266</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.58073451527832</v>
+        <v>5.517320922825604</v>
       </c>
       <c r="C19">
-        <v>2.842428427704533</v>
+        <v>2.179380960031722</v>
       </c>
       <c r="D19">
-        <v>0.307790534512236</v>
+        <v>0.3082925442195688</v>
       </c>
       <c r="E19">
-        <v>0.01980501099169096</v>
+        <v>2.215963674404506</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007255530501121765</v>
+        <v>2.273597453910213</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.120042806607529</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.7632909555350338</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6777506784364107</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.029657696574645</v>
+        <v>0.2776663883391008</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.24531730561739</v>
+        <v>5.754665091273694</v>
       </c>
       <c r="C20">
-        <v>2.989761411943675</v>
+        <v>2.275136534092553</v>
       </c>
       <c r="D20">
-        <v>0.3236099003522952</v>
+        <v>0.3219035595823385</v>
       </c>
       <c r="E20">
-        <v>0.02060205452288244</v>
+        <v>2.322699320091147</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007174767556930028</v>
+        <v>2.376889349774444</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.164900931842595</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7936492715619323</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7098556208465396</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.17393397513689</v>
+        <v>0.262420081554537</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.63284695544553</v>
+        <v>6.568274451019818</v>
       </c>
       <c r="C21">
-        <v>3.519731508823611</v>
+        <v>2.604867402545437</v>
       </c>
       <c r="D21">
-        <v>0.3803769414400193</v>
+        <v>0.3687950243376861</v>
       </c>
       <c r="E21">
-        <v>0.02352534638785997</v>
+        <v>2.696323038751217</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006895192332389685</v>
+        <v>2.738921017066474</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.3228972427938</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.9016578334510399</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8250852421657839</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.689062084773127</v>
+        <v>0.2138830675475987</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.34551563726507</v>
+        <v>7.114484266639465</v>
       </c>
       <c r="C22">
-        <v>3.900799302586165</v>
+        <v>2.827561790711798</v>
       </c>
       <c r="D22">
-        <v>0.4210552057573835</v>
+        <v>0.4004646654716311</v>
       </c>
       <c r="E22">
-        <v>0.02568800203920674</v>
+        <v>2.95417266735366</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006703380816630695</v>
+        <v>2.988730847298797</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.432525056071654</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.9774894535230629</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9076102920257654</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.055387086110215</v>
+        <v>0.1844040569866117</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.41458881256358</v>
+        <v>6.821467031326733</v>
       </c>
       <c r="C23">
-        <v>3.693559398643629</v>
+        <v>2.707960031706818</v>
       </c>
       <c r="D23">
-        <v>0.3989477252144127</v>
+        <v>0.3834572176816238</v>
       </c>
       <c r="E23">
-        <v>0.02450513476653882</v>
+        <v>2.81512476765127</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006806819237783799</v>
+        <v>2.854051125661613</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.373365352627189</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.936483198001099</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8627693150350808</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.85660941547917</v>
+        <v>0.1999155499022125</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.20831637912488</v>
+        <v>5.741576064004619</v>
       </c>
       <c r="C24">
-        <v>2.981556906725189</v>
+        <v>2.269850810839216</v>
       </c>
       <c r="D24">
-        <v>0.3227293938327449</v>
+        <v>0.3211521112335305</v>
       </c>
       <c r="E24">
-        <v>0.02055750156008251</v>
+        <v>2.316787073231225</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007179227488629526</v>
+        <v>2.371165371945295</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.162412331190609</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7919612975388688</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7080684565599284</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.16591127075344</v>
+        <v>0.2632477763793357</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.19152721727858</v>
+        <v>4.624138843756896</v>
       </c>
       <c r="C25">
-        <v>2.313070477502322</v>
+        <v>1.820714874052214</v>
       </c>
       <c r="D25">
-        <v>0.250823324482127</v>
+        <v>0.2573718636301692</v>
       </c>
       <c r="E25">
-        <v>0.01698958689309293</v>
+        <v>1.823015062369734</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000755886372523128</v>
+        <v>1.894620349598</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.9564756942473309</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6539338065099614</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5622636739675499</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.507949951378947</v>
+        <v>0.3397345202504383</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.828850977320883</v>
+        <v>1.223194389186745</v>
       </c>
       <c r="C2">
-        <v>1.503516952450525</v>
+        <v>0.4410279939397697</v>
       </c>
       <c r="D2">
-        <v>0.2124737290188818</v>
+        <v>0.07930899002765557</v>
       </c>
       <c r="E2">
-        <v>1.484308278986177</v>
+        <v>0.4211715630783601</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.570812539150893</v>
+        <v>0.8285168191641503</v>
       </c>
       <c r="H2">
-        <v>0.8183043283216307</v>
+        <v>0.772730941403637</v>
       </c>
       <c r="I2">
-        <v>0.5635097143352468</v>
+        <v>0.5334048023530187</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.401785265663833</v>
+        <v>0.889068435693577</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.301734406944661</v>
+        <v>1.080042981006329</v>
       </c>
       <c r="C3">
-        <v>1.294350097362496</v>
+        <v>0.3843995217006295</v>
       </c>
       <c r="D3">
-        <v>0.1829765547145144</v>
+        <v>0.07180443182238605</v>
       </c>
       <c r="E3">
-        <v>1.26542847422462</v>
+        <v>0.3670622442441811</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.363869410864908</v>
+        <v>0.7849318891588837</v>
       </c>
       <c r="H3">
-        <v>0.7310264583922788</v>
+        <v>0.759117781820521</v>
       </c>
       <c r="I3">
-        <v>0.507564693055599</v>
+        <v>0.5259301036038053</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4468964314632444</v>
+        <v>0.9053844807486157</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.982472697588094</v>
+        <v>0.9923884694594562</v>
       </c>
       <c r="C4">
-        <v>1.168063875972337</v>
+        <v>0.3496615900773463</v>
       </c>
       <c r="D4">
-        <v>0.1652247485531575</v>
+        <v>0.06723879186561987</v>
       </c>
       <c r="E4">
-        <v>1.135005326570251</v>
+        <v>0.3339756669310816</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.241762795754227</v>
+        <v>0.7589509797061851</v>
       </c>
       <c r="H4">
-        <v>0.6800137447163763</v>
+        <v>0.7513724930354613</v>
       </c>
       <c r="I4">
-        <v>0.4753883163782788</v>
+        <v>0.5218294836030992</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4759592540316171</v>
+        <v>0.91588475578409</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.853284043382416</v>
+        <v>0.9567273147872015</v>
       </c>
       <c r="C5">
-        <v>1.117046357770732</v>
+        <v>0.3355123973026934</v>
       </c>
       <c r="D5">
-        <v>0.1580680273238357</v>
+        <v>0.06538867410129967</v>
       </c>
       <c r="E5">
-        <v>1.082689019018389</v>
+        <v>0.3205239994476585</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.193090640438044</v>
+        <v>0.7485568321405935</v>
       </c>
       <c r="H5">
-        <v>0.6597995161552319</v>
+        <v>0.7483692020607009</v>
       </c>
       <c r="I5">
-        <v>0.4627624359503741</v>
+        <v>0.5202802314421646</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.488126373567124</v>
+        <v>0.9202845641080107</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.831882306628927</v>
+        <v>0.950809304110237</v>
       </c>
       <c r="C6">
-        <v>1.108599271339756</v>
+        <v>0.3331633076853109</v>
       </c>
       <c r="D6">
-        <v>0.1568839670168103</v>
+        <v>0.06508208712033081</v>
       </c>
       <c r="E6">
-        <v>1.074047721324362</v>
+        <v>0.3182921684433211</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.185069987393007</v>
+        <v>0.7468424798055366</v>
       </c>
       <c r="H6">
-        <v>0.656475600165578</v>
+        <v>0.7478797116694977</v>
       </c>
       <c r="I6">
-        <v>0.4606936351486794</v>
+        <v>0.5200303013714134</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4901657425643329</v>
+        <v>0.9210224376159887</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.98072695508921</v>
+        <v>0.9919072950909822</v>
       </c>
       <c r="C7">
-        <v>1.16737415015217</v>
+        <v>0.3494707432811879</v>
       </c>
       <c r="D7">
-        <v>0.1651279340229621</v>
+        <v>0.067213798598587</v>
       </c>
       <c r="E7">
-        <v>1.134296605960373</v>
+        <v>0.3337941298937039</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.24110218229697</v>
+        <v>0.7588100218982277</v>
       </c>
       <c r="H7">
-        <v>0.6797388972168505</v>
+        <v>0.7513313718411325</v>
       </c>
       <c r="I7">
-        <v>0.475216145941971</v>
+        <v>0.5218080982737376</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.4761220571629758</v>
+        <v>0.9159436042954566</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.646068599934267</v>
+        <v>1.173784594056656</v>
       </c>
       <c r="C8">
-        <v>1.430891651534409</v>
+        <v>0.4214950162170794</v>
       </c>
       <c r="D8">
-        <v>0.2022201428599715</v>
+        <v>0.0767125438797791</v>
       </c>
       <c r="E8">
-        <v>1.407907863648092</v>
+        <v>0.4024844484551977</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.498328370029782</v>
+        <v>0.8133249578644666</v>
       </c>
       <c r="H8">
-        <v>0.7876291895471468</v>
+        <v>0.7679090947945895</v>
       </c>
       <c r="I8">
-        <v>0.5437302364416183</v>
+        <v>0.5307253624615669</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4170441738666502</v>
+        <v>0.8945939068138296</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.995492276981338</v>
+        <v>1.532460675891627</v>
       </c>
       <c r="C9">
-        <v>1.96951700504826</v>
+        <v>0.5630555793379699</v>
       </c>
       <c r="D9">
-        <v>0.2784830365707052</v>
+        <v>0.09568398586480953</v>
       </c>
       <c r="E9">
-        <v>1.984742342865189</v>
+        <v>0.5384140519905571</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.050284992117128</v>
+        <v>0.9265611969658494</v>
       </c>
       <c r="H9">
-        <v>1.023451049925825</v>
+        <v>0.8053424280979016</v>
       </c>
       <c r="I9">
-        <v>0.6984411197734275</v>
+        <v>0.5521448529413107</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3130019412901768</v>
+        <v>0.8565695002148395</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.030228483225812</v>
+        <v>1.797379534263314</v>
       </c>
       <c r="C10">
-        <v>2.386553990313928</v>
+        <v>0.667357868110571</v>
       </c>
       <c r="D10">
-        <v>0.3377457901929972</v>
+        <v>0.10984720714562</v>
       </c>
       <c r="E10">
-        <v>2.447883519562382</v>
+        <v>0.6392386904091296</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.498139034052969</v>
+        <v>1.013820902331446</v>
       </c>
       <c r="H10">
-        <v>1.217688845052237</v>
+        <v>0.8359326481020446</v>
       </c>
       <c r="I10">
-        <v>0.8295550888530556</v>
+        <v>0.5703565829551849</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.2453442042899132</v>
+        <v>0.8309974018753611</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.514764395375607</v>
+        <v>1.918241302254387</v>
       </c>
       <c r="C11">
-        <v>2.583109394735573</v>
+        <v>0.714895335421545</v>
       </c>
       <c r="D11">
-        <v>0.3657003996901977</v>
+        <v>0.1163426159284455</v>
       </c>
       <c r="E11">
-        <v>2.671372427062281</v>
+        <v>0.6853606222822037</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.714737835408073</v>
+        <v>1.05444556221758</v>
       </c>
       <c r="H11">
-        <v>1.312309192463943</v>
+        <v>0.8505385488238062</v>
       </c>
       <c r="I11">
-        <v>0.8943705467569742</v>
+        <v>0.5791960274693508</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2169027982381646</v>
+        <v>0.8198822966329333</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.700683192549491</v>
+        <v>1.964061380303974</v>
       </c>
       <c r="C12">
-        <v>2.658751294945944</v>
+        <v>0.7329111484910982</v>
       </c>
       <c r="D12">
-        <v>0.3764587482593242</v>
+        <v>0.1188100529928846</v>
       </c>
       <c r="E12">
-        <v>2.758297260801001</v>
+        <v>0.7028663188493312</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.798984563900376</v>
+        <v>1.069966323637743</v>
       </c>
       <c r="H12">
-        <v>1.349214137579594</v>
+        <v>0.856170188292765</v>
       </c>
       <c r="I12">
-        <v>0.9197992990038415</v>
+        <v>0.5826244473903586</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2065128467947748</v>
+        <v>0.8157482068192727</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.66052589991159</v>
+        <v>1.954190842905291</v>
       </c>
       <c r="C13">
-        <v>2.642402524396687</v>
+        <v>0.7290304560642085</v>
       </c>
       <c r="D13">
-        <v>0.3741335475641421</v>
+        <v>0.1182782973164649</v>
       </c>
       <c r="E13">
-        <v>2.739466058699605</v>
+        <v>0.6990943046543947</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.780734797591975</v>
+        <v>1.066617498697298</v>
       </c>
       <c r="H13">
-        <v>1.341215089233003</v>
+        <v>0.8549528119704064</v>
       </c>
       <c r="I13">
-        <v>0.9142808897370713</v>
+        <v>0.5818824468724699</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2087328090763396</v>
+        <v>0.8166352150288926</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.530008372629084</v>
+        <v>1.922009885734894</v>
       </c>
       <c r="C14">
-        <v>2.589306779329149</v>
+        <v>0.7163772098502363</v>
       </c>
       <c r="D14">
-        <v>0.366581850661106</v>
+        <v>0.1165454565348512</v>
       </c>
       <c r="E14">
-        <v>2.678474835897916</v>
+        <v>0.6867999982667072</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.721621858495922</v>
+        <v>1.055719697670497</v>
       </c>
       <c r="H14">
-        <v>1.315322739355821</v>
+        <v>0.8509998406211139</v>
       </c>
       <c r="I14">
-        <v>0.8964439555743837</v>
+        <v>0.5794764523107574</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2160401092436688</v>
+        <v>0.8195406773492004</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.450394496378976</v>
+        <v>1.902305003708307</v>
       </c>
       <c r="C15">
-        <v>2.556949242670044</v>
+        <v>0.7086286519760279</v>
       </c>
       <c r="D15">
-        <v>0.3619796483879725</v>
+        <v>0.115485059546387</v>
       </c>
       <c r="E15">
-        <v>2.641429955390947</v>
+        <v>0.6792747357431921</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.685715643099229</v>
+        <v>1.049062433558817</v>
       </c>
       <c r="H15">
-        <v>1.299608555396219</v>
+        <v>0.8485916891503109</v>
       </c>
       <c r="I15">
-        <v>0.8856381459318925</v>
+        <v>0.5780133143966353</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2205670015719559</v>
+        <v>0.8213301340002593</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.998877561174595</v>
+        <v>1.789488138552315</v>
       </c>
       <c r="C16">
-        <v>2.373864731776223</v>
+        <v>0.6642531169682115</v>
       </c>
       <c r="D16">
-        <v>0.3359413228926371</v>
+        <v>0.1094237917330929</v>
       </c>
       <c r="E16">
-        <v>2.433572140091485</v>
+        <v>0.6362299659068356</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.484273225250661</v>
+        <v>1.011184982908389</v>
       </c>
       <c r="H16">
-        <v>1.211645312598648</v>
+        <v>0.8349921307303418</v>
       </c>
       <c r="I16">
-        <v>0.8254347694748461</v>
+        <v>0.5697901824027838</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.2472535367511779</v>
+        <v>0.8317342618715833</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.72572166373493</v>
+        <v>1.720369529037839</v>
       </c>
       <c r="C17">
-        <v>2.263449136910992</v>
+        <v>0.6370542206893219</v>
       </c>
       <c r="D17">
-        <v>0.3202420297952528</v>
+        <v>0.1057189983310565</v>
       </c>
       <c r="E17">
-        <v>2.309629807120714</v>
+        <v>0.6098914838607499</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.364236372086395</v>
+        <v>0.9881889246686626</v>
       </c>
       <c r="H17">
-        <v>1.159400250767334</v>
+        <v>0.8268270529665074</v>
       </c>
       <c r="I17">
-        <v>0.78991884123608</v>
+        <v>0.5648886041664127</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.2642523771568697</v>
+        <v>0.8382498260542472</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.569880241986368</v>
+        <v>1.68064703372454</v>
       </c>
       <c r="C18">
-        <v>2.200569302812937</v>
+        <v>0.6214184995207006</v>
       </c>
       <c r="D18">
-        <v>0.3113039056913891</v>
+        <v>0.1035930262736144</v>
       </c>
       <c r="E18">
-        <v>2.239514355805937</v>
+        <v>0.5947661983524881</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.296379437393398</v>
+        <v>0.9750495104519246</v>
       </c>
       <c r="H18">
-        <v>1.129927452363887</v>
+        <v>0.8221955985921738</v>
       </c>
       <c r="I18">
-        <v>0.7699679554742289</v>
+        <v>0.5621214893018376</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.2742465211331266</v>
+        <v>0.8420461103836836</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.517320922825604</v>
+        <v>1.667203230221503</v>
       </c>
       <c r="C19">
-        <v>2.179380960031722</v>
+        <v>0.6161259048061538</v>
       </c>
       <c r="D19">
-        <v>0.3082925442195688</v>
+        <v>0.1028740482975508</v>
       </c>
       <c r="E19">
-        <v>2.215963674404506</v>
+        <v>0.5896490390652076</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.273597453910213</v>
+        <v>0.9706156239115842</v>
       </c>
       <c r="H19">
-        <v>1.120042806607529</v>
+        <v>0.8206385677235062</v>
       </c>
       <c r="I19">
-        <v>0.7632909555350338</v>
+        <v>0.5611935072141634</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.2776663883391008</v>
+        <v>0.8433398168170955</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.754665091273694</v>
+        <v>1.727723922989185</v>
       </c>
       <c r="C20">
-        <v>2.275136534092553</v>
+        <v>0.6399487132497939</v>
       </c>
       <c r="D20">
-        <v>0.3219035595823385</v>
+        <v>0.1061128684014108</v>
       </c>
       <c r="E20">
-        <v>2.322699320091147</v>
+        <v>0.6126927604561843</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.376889349774444</v>
+        <v>0.9906278337006142</v>
       </c>
       <c r="H20">
-        <v>1.164900931842595</v>
+        <v>0.8276895139718476</v>
       </c>
       <c r="I20">
-        <v>0.7936492715619323</v>
+        <v>0.5654049793378562</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.262420081554537</v>
+        <v>0.8375511888153433</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.568274451019818</v>
+        <v>1.931460774437483</v>
       </c>
       <c r="C21">
-        <v>2.604867402545437</v>
+        <v>0.7200933719938689</v>
       </c>
       <c r="D21">
-        <v>0.3687950243376861</v>
+        <v>0.1170542213262564</v>
       </c>
       <c r="E21">
-        <v>2.696323038751217</v>
+        <v>0.6904100117922525</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.738921017066474</v>
+        <v>1.058916898359826</v>
       </c>
       <c r="H21">
-        <v>1.3228972427938</v>
+        <v>0.8521581794785789</v>
       </c>
       <c r="I21">
-        <v>0.9016578334510399</v>
+        <v>0.5801809391328732</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2138830675475987</v>
+        <v>0.8186852341817297</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.114484266639465</v>
+        <v>2.064920779466661</v>
       </c>
       <c r="C22">
-        <v>2.827561790711798</v>
+        <v>0.772557221735326</v>
       </c>
       <c r="D22">
-        <v>0.4004646654716311</v>
+        <v>0.1242504028945461</v>
       </c>
       <c r="E22">
-        <v>2.95417266735366</v>
+        <v>0.7414394118619612</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.988730847298797</v>
+        <v>1.104348388317277</v>
       </c>
       <c r="H22">
-        <v>1.432525056071654</v>
+        <v>0.8687375219533351</v>
       </c>
       <c r="I22">
-        <v>0.9774894535230629</v>
+        <v>0.5903113087821339</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.1844040569866117</v>
+        <v>0.8067924049461229</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.821467031326733</v>
+        <v>1.993661906867487</v>
       </c>
       <c r="C23">
-        <v>2.707960031706818</v>
+        <v>0.7445480292867046</v>
       </c>
       <c r="D23">
-        <v>0.3834572176816238</v>
+        <v>0.1204054401535757</v>
       </c>
       <c r="E23">
-        <v>2.81512476765127</v>
+        <v>0.7141812413952664</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.854051125661613</v>
+        <v>1.080026357828899</v>
       </c>
       <c r="H23">
-        <v>1.373365352627189</v>
+        <v>0.8598345609016462</v>
       </c>
       <c r="I23">
-        <v>0.936483198001099</v>
+        <v>0.5848607771707464</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.1999155499022125</v>
+        <v>0.8130996615420404</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.741576064004619</v>
+        <v>1.724398955816412</v>
       </c>
       <c r="C24">
-        <v>2.269850810839216</v>
+        <v>0.6386401092678966</v>
       </c>
       <c r="D24">
-        <v>0.3211521112335305</v>
+        <v>0.1059347874151371</v>
       </c>
       <c r="E24">
-        <v>2.316787073231225</v>
+        <v>0.6114262504347607</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.371165371945295</v>
+        <v>0.9895249498702299</v>
       </c>
       <c r="H24">
-        <v>1.162412331190609</v>
+        <v>0.8272993999842981</v>
       </c>
       <c r="I24">
-        <v>0.7919612975388688</v>
+        <v>0.5651713677815309</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.2632477763793357</v>
+        <v>0.8378668857654689</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.624138843756896</v>
+        <v>1.435196092539115</v>
       </c>
       <c r="C25">
-        <v>1.820714874052214</v>
+        <v>0.5247148793080783</v>
       </c>
       <c r="D25">
-        <v>0.2573718636301692</v>
+        <v>0.09051330460006568</v>
       </c>
       <c r="E25">
-        <v>1.823015062369734</v>
+        <v>0.5014886775096841</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.894620349598</v>
+        <v>0.8952288673592932</v>
       </c>
       <c r="H25">
-        <v>0.9564756942473309</v>
+        <v>0.7946797264428653</v>
       </c>
       <c r="I25">
-        <v>0.6539338065099614</v>
+        <v>0.5459213548925845</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.3397345202504383</v>
+        <v>0.8664425269104403</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.223194389186745</v>
+        <v>3.828850977320883</v>
       </c>
       <c r="C2">
-        <v>0.4410279939397697</v>
+        <v>1.503516952450411</v>
       </c>
       <c r="D2">
-        <v>0.07930899002765557</v>
+        <v>0.2124737290189955</v>
       </c>
       <c r="E2">
-        <v>0.4211715630783601</v>
+        <v>1.48430827898612</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8285168191641503</v>
+        <v>1.570812539150864</v>
       </c>
       <c r="H2">
-        <v>0.772730941403637</v>
+        <v>0.818304328321517</v>
       </c>
       <c r="I2">
-        <v>0.5334048023530187</v>
+        <v>0.5635097143352468</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.889068435693577</v>
+        <v>0.4017852656638414</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.080042981006329</v>
+        <v>3.301734406944661</v>
       </c>
       <c r="C3">
-        <v>0.3843995217006295</v>
+        <v>1.294350097362383</v>
       </c>
       <c r="D3">
-        <v>0.07180443182238605</v>
+        <v>0.1829765547144007</v>
       </c>
       <c r="E3">
-        <v>0.3670622442441811</v>
+        <v>1.265428474224649</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7849318891588837</v>
+        <v>1.363869410864908</v>
       </c>
       <c r="H3">
-        <v>0.759117781820521</v>
+        <v>0.7310264583921651</v>
       </c>
       <c r="I3">
-        <v>0.5259301036038053</v>
+        <v>0.5075646930556061</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9053844807486157</v>
+        <v>0.4468964314632413</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9923884694594562</v>
+        <v>2.982472697588207</v>
       </c>
       <c r="C4">
-        <v>0.3496615900773463</v>
+        <v>1.168063875972507</v>
       </c>
       <c r="D4">
-        <v>0.06723879186561987</v>
+        <v>0.1652247485531575</v>
       </c>
       <c r="E4">
-        <v>0.3339756669310816</v>
+        <v>1.135005326570266</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7589509797061851</v>
+        <v>1.241762795754227</v>
       </c>
       <c r="H4">
-        <v>0.7513724930354613</v>
+        <v>0.6800137447162626</v>
       </c>
       <c r="I4">
-        <v>0.5218294836030992</v>
+        <v>0.4753883163782788</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.91588475578409</v>
+        <v>0.4759592540316573</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9567273147872015</v>
+        <v>2.853284043382303</v>
       </c>
       <c r="C5">
-        <v>0.3355123973026934</v>
+        <v>1.117046357770562</v>
       </c>
       <c r="D5">
-        <v>0.06538867410129967</v>
+        <v>0.1580680273238357</v>
       </c>
       <c r="E5">
-        <v>0.3205239994476585</v>
+        <v>1.082689019018389</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7485568321405935</v>
+        <v>1.193090640438015</v>
       </c>
       <c r="H5">
-        <v>0.7483692020607009</v>
+        <v>0.6597995161552319</v>
       </c>
       <c r="I5">
-        <v>0.5202802314421646</v>
+        <v>0.462762435950367</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9202845641080107</v>
+        <v>0.4881263735670758</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.950809304110237</v>
+        <v>2.831882306628927</v>
       </c>
       <c r="C6">
-        <v>0.3331633076853109</v>
+        <v>1.108599271339699</v>
       </c>
       <c r="D6">
-        <v>0.06508208712033081</v>
+        <v>0.1568839670167961</v>
       </c>
       <c r="E6">
-        <v>0.3182921684433211</v>
+        <v>1.074047721324362</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7468424798055366</v>
+        <v>1.185069987393064</v>
       </c>
       <c r="H6">
-        <v>0.7478797116694977</v>
+        <v>0.6564756001656917</v>
       </c>
       <c r="I6">
-        <v>0.5200303013714134</v>
+        <v>0.4606936351486866</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9210224376159887</v>
+        <v>0.4901657425643209</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9919072950909822</v>
+        <v>2.98072695508921</v>
       </c>
       <c r="C7">
-        <v>0.3494707432811879</v>
+        <v>1.167374150151886</v>
       </c>
       <c r="D7">
-        <v>0.067213798598587</v>
+        <v>0.1651279340229621</v>
       </c>
       <c r="E7">
-        <v>0.3337941298937039</v>
+        <v>1.134296605960373</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7588100218982277</v>
+        <v>1.241102182296999</v>
       </c>
       <c r="H7">
-        <v>0.7513313718411325</v>
+        <v>0.6797388972168505</v>
       </c>
       <c r="I7">
-        <v>0.5218080982737376</v>
+        <v>0.4752161459419497</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9159436042954566</v>
+        <v>0.4761220571630285</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.173784594056656</v>
+        <v>3.64606859993421</v>
       </c>
       <c r="C8">
-        <v>0.4214950162170794</v>
+        <v>1.430891651534466</v>
       </c>
       <c r="D8">
-        <v>0.0767125438797791</v>
+        <v>0.2022201428597725</v>
       </c>
       <c r="E8">
-        <v>0.4024844484551977</v>
+        <v>1.40790786364812</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8133249578644666</v>
+        <v>1.498328370029697</v>
       </c>
       <c r="H8">
-        <v>0.7679090947945895</v>
+        <v>0.7876291895471468</v>
       </c>
       <c r="I8">
-        <v>0.5307253624615669</v>
+        <v>0.5437302364416183</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8945939068138296</v>
+        <v>0.4170441738666835</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.532460675891627</v>
+        <v>4.995492276981111</v>
       </c>
       <c r="C9">
-        <v>0.5630555793379699</v>
+        <v>1.969517005048203</v>
       </c>
       <c r="D9">
-        <v>0.09568398586480953</v>
+        <v>0.2784830365705773</v>
       </c>
       <c r="E9">
-        <v>0.5384140519905571</v>
+        <v>1.984742342865147</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.9265611969658494</v>
+        <v>2.050284992117071</v>
       </c>
       <c r="H9">
-        <v>0.8053424280979016</v>
+        <v>1.023451049925967</v>
       </c>
       <c r="I9">
-        <v>0.5521448529413107</v>
+        <v>0.6984411197734417</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8565695002148395</v>
+        <v>0.3130019412901621</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.797379534263314</v>
+        <v>6.030228483225699</v>
       </c>
       <c r="C10">
-        <v>0.667357868110571</v>
+        <v>2.386553990314098</v>
       </c>
       <c r="D10">
-        <v>0.10984720714562</v>
+        <v>0.3377457901932956</v>
       </c>
       <c r="E10">
-        <v>0.6392386904091296</v>
+        <v>2.447883519562367</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.013820902331446</v>
+        <v>2.498139034052969</v>
       </c>
       <c r="H10">
-        <v>0.8359326481020446</v>
+        <v>1.217688845052209</v>
       </c>
       <c r="I10">
-        <v>0.5703565829551849</v>
+        <v>0.8295550888530627</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8309974018753611</v>
+        <v>0.2453442042898435</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.918241302254387</v>
+        <v>6.514764395375835</v>
       </c>
       <c r="C11">
-        <v>0.714895335421545</v>
+        <v>2.583109394735629</v>
       </c>
       <c r="D11">
-        <v>0.1163426159284455</v>
+        <v>0.3657003996903967</v>
       </c>
       <c r="E11">
-        <v>0.6853606222822037</v>
+        <v>2.671372427062266</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.05444556221758</v>
+        <v>2.714737835408101</v>
       </c>
       <c r="H11">
-        <v>0.8505385488238062</v>
+        <v>1.312309192463943</v>
       </c>
       <c r="I11">
-        <v>0.5791960274693508</v>
+        <v>0.8943705467569885</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8198822966329333</v>
+        <v>0.2169027982381326</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.964061380303974</v>
+        <v>6.700683192549548</v>
       </c>
       <c r="C12">
-        <v>0.7329111484910982</v>
+        <v>2.65875129494583</v>
       </c>
       <c r="D12">
-        <v>0.1188100529928846</v>
+        <v>0.37645874825931</v>
       </c>
       <c r="E12">
-        <v>0.7028663188493312</v>
+        <v>2.758297260800958</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.069966323637743</v>
+        <v>2.798984563900376</v>
       </c>
       <c r="H12">
-        <v>0.856170188292765</v>
+        <v>1.349214137579509</v>
       </c>
       <c r="I12">
-        <v>0.5826244473903586</v>
+        <v>0.9197992990038557</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8157482068192727</v>
+        <v>0.2065128467947783</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.954190842905291</v>
+        <v>6.66052589991159</v>
       </c>
       <c r="C13">
-        <v>0.7290304560642085</v>
+        <v>2.64240252439663</v>
       </c>
       <c r="D13">
-        <v>0.1182782973164649</v>
+        <v>0.3741335475640994</v>
       </c>
       <c r="E13">
-        <v>0.6990943046543947</v>
+        <v>2.739466058699577</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.066617498697298</v>
+        <v>2.780734797591975</v>
       </c>
       <c r="H13">
-        <v>0.8549528119704064</v>
+        <v>1.341215089232946</v>
       </c>
       <c r="I13">
-        <v>0.5818824468724699</v>
+        <v>0.9142808897370998</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8166352150288926</v>
+        <v>0.208732809076321</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.922009885734894</v>
+        <v>6.530008372629027</v>
       </c>
       <c r="C14">
-        <v>0.7163772098502363</v>
+        <v>2.589306779328922</v>
       </c>
       <c r="D14">
-        <v>0.1165454565348512</v>
+        <v>0.3665818506610634</v>
       </c>
       <c r="E14">
-        <v>0.6867999982667072</v>
+        <v>2.678474835897944</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.055719697670497</v>
+        <v>2.721621858496007</v>
       </c>
       <c r="H14">
-        <v>0.8509998406211139</v>
+        <v>1.31532273935585</v>
       </c>
       <c r="I14">
-        <v>0.5794764523107574</v>
+        <v>0.8964439555743837</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8195406773492004</v>
+        <v>0.216040109243667</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.902305003708307</v>
+        <v>6.450394496379033</v>
       </c>
       <c r="C15">
-        <v>0.7086286519760279</v>
+        <v>2.5569492426701</v>
       </c>
       <c r="D15">
-        <v>0.115485059546387</v>
+        <v>0.3619796483877309</v>
       </c>
       <c r="E15">
-        <v>0.6792747357431921</v>
+        <v>2.641429955390976</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.049062433558817</v>
+        <v>2.685715643099257</v>
       </c>
       <c r="H15">
-        <v>0.8485916891503109</v>
+        <v>1.299608555396219</v>
       </c>
       <c r="I15">
-        <v>0.5780133143966353</v>
+        <v>0.8856381459319209</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8213301340002593</v>
+        <v>0.220567001572002</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.789488138552315</v>
+        <v>5.998877561174595</v>
       </c>
       <c r="C16">
-        <v>0.6642531169682115</v>
+        <v>2.373864731776564</v>
       </c>
       <c r="D16">
-        <v>0.1094237917330929</v>
+        <v>0.3359413228927366</v>
       </c>
       <c r="E16">
-        <v>0.6362299659068356</v>
+        <v>2.433572140091499</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.011184982908389</v>
+        <v>2.484273225250632</v>
       </c>
       <c r="H16">
-        <v>0.8349921307303418</v>
+        <v>1.211645312598648</v>
       </c>
       <c r="I16">
-        <v>0.5697901824027838</v>
+        <v>0.8254347694748461</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8317342618715833</v>
+        <v>0.2472535367511122</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.720369529037839</v>
+        <v>5.725721663735044</v>
       </c>
       <c r="C17">
-        <v>0.6370542206893219</v>
+        <v>2.263449136910936</v>
       </c>
       <c r="D17">
-        <v>0.1057189983310565</v>
+        <v>0.3202420297952528</v>
       </c>
       <c r="E17">
-        <v>0.6098914838607499</v>
+        <v>2.309629807120672</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9881889246686626</v>
+        <v>2.364236372086339</v>
       </c>
       <c r="H17">
-        <v>0.8268270529665074</v>
+        <v>1.15940025076722</v>
       </c>
       <c r="I17">
-        <v>0.5648886041664127</v>
+        <v>0.7899188412360942</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8382498260542472</v>
+        <v>0.2642523771568683</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.68064703372454</v>
+        <v>5.569880241986596</v>
       </c>
       <c r="C18">
-        <v>0.6214184995207006</v>
+        <v>2.200569302813221</v>
       </c>
       <c r="D18">
-        <v>0.1035930262736144</v>
+        <v>0.3113039056914033</v>
       </c>
       <c r="E18">
-        <v>0.5947661983524881</v>
+        <v>2.239514355805994</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.9750495104519246</v>
+        <v>2.296379437393398</v>
       </c>
       <c r="H18">
-        <v>0.8221955985921738</v>
+        <v>1.129927452363887</v>
       </c>
       <c r="I18">
-        <v>0.5621214893018376</v>
+        <v>0.7699679554742289</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8420461103836836</v>
+        <v>0.2742465211331195</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.667203230221503</v>
+        <v>5.517320922825945</v>
       </c>
       <c r="C19">
-        <v>0.6161259048061538</v>
+        <v>2.179380960031835</v>
       </c>
       <c r="D19">
-        <v>0.1028740482975508</v>
+        <v>0.308292544219654</v>
       </c>
       <c r="E19">
-        <v>0.5896490390652076</v>
+        <v>2.215963674404478</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.9706156239115842</v>
+        <v>2.273597453910241</v>
       </c>
       <c r="H19">
-        <v>0.8206385677235062</v>
+        <v>1.120042806607671</v>
       </c>
       <c r="I19">
-        <v>0.5611935072141634</v>
+        <v>0.763290955535048</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8433398168170955</v>
+        <v>0.277666388339092</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.727723922989185</v>
+        <v>5.754665091273637</v>
       </c>
       <c r="C20">
-        <v>0.6399487132497939</v>
+        <v>2.27513653409278</v>
       </c>
       <c r="D20">
-        <v>0.1061128684014108</v>
+        <v>0.3219035595824522</v>
       </c>
       <c r="E20">
-        <v>0.6126927604561843</v>
+        <v>2.322699320091075</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.9906278337006142</v>
+        <v>2.376889349774473</v>
       </c>
       <c r="H20">
-        <v>0.8276895139718476</v>
+        <v>1.164900931842595</v>
       </c>
       <c r="I20">
-        <v>0.5654049793378562</v>
+        <v>0.7936492715619323</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8375511888153433</v>
+        <v>0.2624200815545428</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.931460774437483</v>
+        <v>6.568274451019761</v>
       </c>
       <c r="C21">
-        <v>0.7200933719938689</v>
+        <v>2.604867402545835</v>
       </c>
       <c r="D21">
-        <v>0.1170542213262564</v>
+        <v>0.3687950243377855</v>
       </c>
       <c r="E21">
-        <v>0.6904100117922525</v>
+        <v>2.696323038751217</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.058916898359826</v>
+        <v>2.738921017066446</v>
       </c>
       <c r="H21">
-        <v>0.8521581794785789</v>
+        <v>1.322897242793687</v>
       </c>
       <c r="I21">
-        <v>0.5801809391328732</v>
+        <v>0.9016578334510541</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8186852341817297</v>
+        <v>0.213883067547596</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064920779466661</v>
+        <v>7.114484266639522</v>
       </c>
       <c r="C22">
-        <v>0.772557221735326</v>
+        <v>2.827561790712139</v>
       </c>
       <c r="D22">
-        <v>0.1242504028945461</v>
+        <v>0.4004646654716169</v>
       </c>
       <c r="E22">
-        <v>0.7414394118619612</v>
+        <v>2.954172667353617</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.104348388317277</v>
+        <v>2.988730847298854</v>
       </c>
       <c r="H22">
-        <v>0.8687375219533351</v>
+        <v>1.432525056071654</v>
       </c>
       <c r="I22">
-        <v>0.5903113087821339</v>
+        <v>0.9774894535230629</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8067924049461229</v>
+        <v>0.1844040569866072</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.993661906867487</v>
+        <v>6.821467031326847</v>
       </c>
       <c r="C23">
-        <v>0.7445480292867046</v>
+        <v>2.707960031706648</v>
       </c>
       <c r="D23">
-        <v>0.1204054401535757</v>
+        <v>0.3834572176817375</v>
       </c>
       <c r="E23">
-        <v>0.7141812413952664</v>
+        <v>2.815124767651213</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.080026357828899</v>
+        <v>2.854051125661755</v>
       </c>
       <c r="H23">
-        <v>0.8598345609016462</v>
+        <v>1.373365352627189</v>
       </c>
       <c r="I23">
-        <v>0.5848607771707464</v>
+        <v>0.9364831980010848</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8130996615420404</v>
+        <v>0.1999155499022045</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.724398955816412</v>
+        <v>5.741576064004676</v>
       </c>
       <c r="C24">
-        <v>0.6386401092678966</v>
+        <v>2.26985081083933</v>
       </c>
       <c r="D24">
-        <v>0.1059347874151371</v>
+        <v>0.32115211123363</v>
       </c>
       <c r="E24">
-        <v>0.6114262504347607</v>
+        <v>2.316787073231225</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.9895249498702299</v>
+        <v>2.371165371945381</v>
       </c>
       <c r="H24">
-        <v>0.8272993999842981</v>
+        <v>1.162412331190581</v>
       </c>
       <c r="I24">
-        <v>0.5651713677815309</v>
+        <v>0.7919612975388688</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8378668857654689</v>
+        <v>0.2632477763793375</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.435196092539115</v>
+        <v>4.624138843757009</v>
       </c>
       <c r="C25">
-        <v>0.5247148793080783</v>
+        <v>1.820714874051987</v>
       </c>
       <c r="D25">
-        <v>0.09051330460006568</v>
+        <v>0.257371863630155</v>
       </c>
       <c r="E25">
-        <v>0.5014886775096841</v>
+        <v>1.823015062369777</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8952288673592932</v>
+        <v>1.894620349598</v>
       </c>
       <c r="H25">
-        <v>0.7946797264428653</v>
+        <v>0.9564756942474446</v>
       </c>
       <c r="I25">
-        <v>0.5459213548925845</v>
+        <v>0.6539338065099614</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8664425269104403</v>
+        <v>0.3397345202503788</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.828850977320883</v>
+        <v>3.562339560576504</v>
       </c>
       <c r="C2">
-        <v>1.503516952450411</v>
+        <v>0.7786945604617301</v>
       </c>
       <c r="D2">
-        <v>0.2124737290189955</v>
+        <v>0.1986569383416281</v>
       </c>
       <c r="E2">
-        <v>1.48430827898612</v>
+        <v>0.04574411681787272</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.570812539150864</v>
+        <v>1.499636022123951</v>
       </c>
       <c r="H2">
-        <v>0.818304328321517</v>
+        <v>2.29991950151387E-06</v>
       </c>
       <c r="I2">
-        <v>0.5635097143352468</v>
+        <v>0.0004963289547998961</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.8915739533757687</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8111729460560753</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4017852656638414</v>
+        <v>0.3918225843317629</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.7963913996104193</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.301734406944661</v>
+        <v>3.102108071646967</v>
       </c>
       <c r="C3">
-        <v>1.294350097362383</v>
+        <v>0.6762193713872193</v>
       </c>
       <c r="D3">
-        <v>0.1829765547144007</v>
+        <v>0.1720632600323739</v>
       </c>
       <c r="E3">
-        <v>1.265428474224649</v>
+        <v>0.04137259742032207</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.363869410864908</v>
+        <v>1.353919419201532</v>
       </c>
       <c r="H3">
-        <v>0.7310264583921651</v>
+        <v>0.000280490904519537</v>
       </c>
       <c r="I3">
-        <v>0.5075646930556061</v>
+        <v>0.0005785771598518785</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.8275443892314911</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.75961654489452</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4468964314632413</v>
+        <v>0.3435689561386539</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8294086014897193</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.982472697588207</v>
+        <v>2.819502524922882</v>
       </c>
       <c r="C4">
-        <v>1.168063875972507</v>
+        <v>0.6139272294076932</v>
       </c>
       <c r="D4">
-        <v>0.1652247485531575</v>
+        <v>0.1559211510125209</v>
       </c>
       <c r="E4">
-        <v>1.135005326570266</v>
+        <v>0.03871879575851267</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.241762795754227</v>
+        <v>1.265401927327019</v>
       </c>
       <c r="H4">
-        <v>0.6800137447162626</v>
+        <v>0.0008019426419982878</v>
       </c>
       <c r="I4">
-        <v>0.4753883163782788</v>
+        <v>0.001070288047580803</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7888012752850386</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7282906253811419</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4759592540316573</v>
+        <v>0.3140365283360893</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.850151698222871</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.853284043382303</v>
+        <v>2.702316899401012</v>
       </c>
       <c r="C5">
-        <v>1.117046357770562</v>
+        <v>0.5891372968274311</v>
       </c>
       <c r="D5">
-        <v>0.1580680273238357</v>
+        <v>0.149382541825787</v>
       </c>
       <c r="E5">
-        <v>1.082689019018389</v>
+        <v>0.0376242348168816</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.193090640438015</v>
+        <v>1.227986835447311</v>
       </c>
       <c r="H5">
-        <v>0.6597995161552319</v>
+        <v>0.001099459571735295</v>
       </c>
       <c r="I5">
-        <v>0.462762435950367</v>
+        <v>0.001446450448009617</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.7723603229298419</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7146177039429418</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4881263735670758</v>
+        <v>0.3020545076995376</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8584802055500376</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.831882306628927</v>
+        <v>2.680433450139162</v>
       </c>
       <c r="C6">
-        <v>1.108599271339699</v>
+        <v>0.585592052022804</v>
       </c>
       <c r="D6">
-        <v>0.1568839670167961</v>
+        <v>0.148297134789928</v>
       </c>
       <c r="E6">
-        <v>1.074047721324362</v>
+        <v>0.03742045524738202</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.185069987393064</v>
+        <v>1.219889149613437</v>
       </c>
       <c r="H6">
-        <v>0.6564756001656917</v>
+        <v>0.001156471816380122</v>
       </c>
       <c r="I6">
-        <v>0.4606936351486866</v>
+        <v>0.001610205618653993</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7686819255779369</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.711155021071086</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4901657425643209</v>
+        <v>0.3001086422731731</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8595820317698646</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.98072695508921</v>
+        <v>2.811280998895484</v>
       </c>
       <c r="C7">
-        <v>1.167374150151886</v>
+        <v>0.6151353519172176</v>
       </c>
       <c r="D7">
-        <v>0.1651279340229621</v>
+        <v>0.1558270689576204</v>
       </c>
       <c r="E7">
-        <v>1.134296605960373</v>
+        <v>0.03864295728661826</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.241102182296999</v>
+        <v>1.259704532283223</v>
       </c>
       <c r="H7">
-        <v>0.6797388972168505</v>
+        <v>0.0008117025909746278</v>
       </c>
       <c r="I7">
-        <v>0.4752161459419497</v>
+        <v>0.001316742321158415</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7859645747494142</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7248330815699191</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.4761220571630285</v>
+        <v>0.3139920892109274</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8494920550043972</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.64606859993421</v>
+        <v>3.394722473680702</v>
       </c>
       <c r="C8">
-        <v>1.430891651534466</v>
+        <v>0.745274536471868</v>
       </c>
       <c r="D8">
-        <v>0.2022201428597725</v>
+        <v>0.1894360156605188</v>
       </c>
       <c r="E8">
-        <v>1.40790786364812</v>
+        <v>0.04414701008873845</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.498328370029697</v>
+        <v>1.442256601092993</v>
       </c>
       <c r="H8">
-        <v>0.7876291895471468</v>
+        <v>2.346744268111323E-05</v>
       </c>
       <c r="I8">
-        <v>0.5437302364416183</v>
+        <v>0.0007062560669588436</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.8658928244861386</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7889702791960644</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4170441738666835</v>
+        <v>0.3753167771541541</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8067244682867036</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.995492276981111</v>
+        <v>4.552672903669077</v>
       </c>
       <c r="C9">
-        <v>1.969517005048203</v>
+        <v>1.003807284247813</v>
       </c>
       <c r="D9">
-        <v>0.2784830365705773</v>
+        <v>0.2571197408995403</v>
       </c>
       <c r="E9">
-        <v>1.984742342865147</v>
+        <v>0.05541439524579062</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.050284992117071</v>
+        <v>1.818765122011911</v>
       </c>
       <c r="H9">
-        <v>1.023451049925967</v>
+        <v>0.001520087992560537</v>
       </c>
       <c r="I9">
-        <v>0.6984411197734417</v>
+        <v>0.003006206613294538</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.032605991882434</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9238256885499965</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3130019412901621</v>
+        <v>0.4964266810576419</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.728086074272869</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.030228483225699</v>
+        <v>5.370788960352172</v>
       </c>
       <c r="C10">
-        <v>2.386553990314098</v>
+        <v>1.202979455728837</v>
       </c>
       <c r="D10">
-        <v>0.3377457901932956</v>
+        <v>0.3082772155963909</v>
       </c>
       <c r="E10">
-        <v>2.447883519562367</v>
+        <v>0.06266806182927986</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.498139034052969</v>
+        <v>2.073635679987802</v>
       </c>
       <c r="H10">
-        <v>1.217688845052209</v>
+        <v>0.004828195224278797</v>
       </c>
       <c r="I10">
-        <v>0.8295550888530627</v>
+        <v>0.007516504782374867</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.144614184615392</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.008510293769838</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.2453442042898435</v>
+        <v>0.5643314730573081</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.6703188346896134</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.514764395375835</v>
+        <v>5.442810049732884</v>
       </c>
       <c r="C11">
-        <v>2.583109394735629</v>
+        <v>1.324694710783263</v>
       </c>
       <c r="D11">
-        <v>0.3657003996903967</v>
+        <v>0.3313527706392563</v>
       </c>
       <c r="E11">
-        <v>2.671372427062266</v>
+        <v>0.06003912076834617</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.714737835408101</v>
+        <v>1.95082295386959</v>
       </c>
       <c r="H11">
-        <v>1.312309192463943</v>
+        <v>0.02359336098843912</v>
       </c>
       <c r="I11">
-        <v>0.8943705467569885</v>
+        <v>0.009381969777701116</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.0766817963802</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9106957360158674</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2169027982381326</v>
+        <v>0.417498120206929</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.6323707248494435</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.700683192549548</v>
+        <v>5.33827374980757</v>
       </c>
       <c r="C12">
-        <v>2.65875129494583</v>
+        <v>1.383581094744898</v>
       </c>
       <c r="D12">
-        <v>0.37645874825931</v>
+        <v>0.3399028250485401</v>
       </c>
       <c r="E12">
-        <v>2.758297260800958</v>
+        <v>0.06465059713541876</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.798984563900376</v>
+        <v>1.804097878219153</v>
       </c>
       <c r="H12">
-        <v>1.349214137579509</v>
+        <v>0.06193419852223769</v>
       </c>
       <c r="I12">
-        <v>0.9197992990038557</v>
+        <v>0.009490602743428056</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.000803196125787</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8189799154472226</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2065128467947783</v>
+        <v>0.2993598195759546</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.6249474012028404</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.66052589991159</v>
+        <v>5.08198451374642</v>
       </c>
       <c r="C13">
-        <v>2.64240252439663</v>
+        <v>1.399068847639796</v>
       </c>
       <c r="D13">
-        <v>0.3741335475640994</v>
+        <v>0.3375643465222851</v>
       </c>
       <c r="E13">
-        <v>2.739466058699577</v>
+        <v>0.07473717888364995</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.780734797591975</v>
+        <v>1.622625207024385</v>
       </c>
       <c r="H13">
-        <v>1.341215089232946</v>
+        <v>0.1168983015391518</v>
       </c>
       <c r="I13">
-        <v>0.9142808897370998</v>
+        <v>0.008511134863512737</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.9104099747344208</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.721756476345611</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.208732809076321</v>
+        <v>0.1974632960668572</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.6384245259221686</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.530008372629027</v>
+        <v>4.833595461745119</v>
       </c>
       <c r="C14">
-        <v>2.589306779328922</v>
+        <v>1.390793498542109</v>
       </c>
       <c r="D14">
-        <v>0.3665818506610634</v>
+        <v>0.3310110537571944</v>
       </c>
       <c r="E14">
-        <v>2.678474835897944</v>
+        <v>0.08524779960251827</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.721621858496007</v>
+        <v>1.48028689488612</v>
       </c>
       <c r="H14">
-        <v>1.31532273935585</v>
+        <v>0.1655566834862583</v>
       </c>
       <c r="I14">
-        <v>0.8964439555743837</v>
+        <v>0.007482786470066394</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.8407020624982806</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.6515834726621819</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.216040109243667</v>
+        <v>0.1369619414465859</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.658488870243886</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.450394496379033</v>
+        <v>4.739139081892972</v>
       </c>
       <c r="C15">
-        <v>2.5569492426701</v>
+        <v>1.380043896404061</v>
       </c>
       <c r="D15">
-        <v>0.3619796483877309</v>
+        <v>0.3271023266819668</v>
       </c>
       <c r="E15">
-        <v>2.641429955390976</v>
+        <v>0.087874279095427</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.685715643099257</v>
+        <v>1.436475847759681</v>
       </c>
       <c r="H15">
-        <v>1.299608555396219</v>
+        <v>0.1777754342417524</v>
       </c>
       <c r="I15">
-        <v>0.8856381459319209</v>
+        <v>0.007127794167139712</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.8197803459563886</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6320277480545187</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.220567001572002</v>
+        <v>0.1232411349002831</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.6664712565539865</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.998877561174595</v>
+        <v>4.441751516790134</v>
       </c>
       <c r="C16">
-        <v>2.373864731776564</v>
+        <v>1.290125452581321</v>
       </c>
       <c r="D16">
-        <v>0.3359413228927366</v>
+        <v>0.305194411643896</v>
       </c>
       <c r="E16">
-        <v>2.433572140091499</v>
+        <v>0.08226960954368501</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.484273225250632</v>
+        <v>1.363968602384119</v>
       </c>
       <c r="H16">
-        <v>1.211645312598648</v>
+        <v>0.163767537612074</v>
       </c>
       <c r="I16">
-        <v>0.8254347694748461</v>
+        <v>0.005385590888280944</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.7898065904206817</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6154011039774048</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.2472535367511122</v>
+        <v>0.1185876743548349</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.6854809680327634</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.725721663735044</v>
+        <v>4.344637881449046</v>
       </c>
       <c r="C17">
-        <v>2.263449136910936</v>
+        <v>1.226043742773072</v>
       </c>
       <c r="D17">
-        <v>0.3202420297952528</v>
+        <v>0.2919787586009051</v>
       </c>
       <c r="E17">
-        <v>2.309629807120672</v>
+        <v>0.07174438709411923</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.364236372086339</v>
+        <v>1.382984709162628</v>
       </c>
       <c r="H17">
-        <v>1.15940025076722</v>
+        <v>0.1254055683991879</v>
       </c>
       <c r="I17">
-        <v>0.7899188412360942</v>
+        <v>0.004651477525539072</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.8034372333038391</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.63913761236239</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.2642523771568683</v>
+        <v>0.1446505687505635</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.6889977018284341</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.569880241986596</v>
+        <v>4.413241049367684</v>
       </c>
       <c r="C18">
-        <v>2.200569302813221</v>
+        <v>1.175381889854748</v>
       </c>
       <c r="D18">
-        <v>0.3113039056914033</v>
+        <v>0.284594041049246</v>
       </c>
       <c r="E18">
-        <v>2.239514355805994</v>
+        <v>0.05965770579343399</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.296379437393398</v>
+        <v>1.488487564030521</v>
       </c>
       <c r="H18">
-        <v>1.129927452363887</v>
+        <v>0.072507391442997</v>
       </c>
       <c r="I18">
-        <v>0.7699679554742289</v>
+        <v>0.004281441151522181</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.8588106922802581</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7046511971848091</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.2742465211331195</v>
+        <v>0.2104176967772062</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.6846126519539339</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.517320922825945</v>
+        <v>4.59875538666364</v>
       </c>
       <c r="C19">
-        <v>2.179380960031835</v>
+        <v>1.142699245407186</v>
       </c>
       <c r="D19">
-        <v>0.308292544219654</v>
+        <v>0.2823613442550084</v>
       </c>
       <c r="E19">
-        <v>2.215963674404478</v>
+        <v>0.05299719839551553</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.273597453910241</v>
+        <v>1.651645184227448</v>
       </c>
       <c r="H19">
-        <v>1.120042806607671</v>
+        <v>0.02770854140220536</v>
       </c>
       <c r="I19">
-        <v>0.763290955535048</v>
+        <v>0.004713179024482983</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9413765624204018</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7978176717735295</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.277666388339092</v>
+        <v>0.3196207969711367</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.6827230841720997</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.754665091273637</v>
+        <v>5.132664743333521</v>
       </c>
       <c r="C20">
-        <v>2.27513653409278</v>
+        <v>1.155299534481003</v>
       </c>
       <c r="D20">
-        <v>0.3219035595824522</v>
+        <v>0.2946887865748806</v>
       </c>
       <c r="E20">
-        <v>2.322699320091075</v>
+        <v>0.06046754451437852</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.376889349774473</v>
+        <v>1.988487600462321</v>
       </c>
       <c r="H20">
-        <v>1.164900931842595</v>
+        <v>0.003741190341921996</v>
       </c>
       <c r="I20">
-        <v>0.7936492715619323</v>
+        <v>0.006767383812166905</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.106066917671455</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9751259204493294</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.2624200815545428</v>
+        <v>0.5458719109919912</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.6833741182368742</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.568274451019761</v>
+        <v>5.818184523395473</v>
       </c>
       <c r="C21">
-        <v>2.604867402545835</v>
+        <v>1.304713118092764</v>
       </c>
       <c r="D21">
-        <v>0.3687950243377855</v>
+        <v>0.3346585948279142</v>
       </c>
       <c r="E21">
-        <v>2.696323038751217</v>
+        <v>0.06842236346349928</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.738921017066446</v>
+        <v>2.232621630159599</v>
       </c>
       <c r="H21">
-        <v>1.322897242793687</v>
+        <v>0.00715269259474216</v>
       </c>
       <c r="I21">
-        <v>0.9016578334510541</v>
+        <v>0.01131465118931718</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.21629058118603</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.067463458788964</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.213883067547596</v>
+        <v>0.6327520959817292</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.6443318649184366</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.114484266639522</v>
+        <v>6.260282435953457</v>
       </c>
       <c r="C22">
-        <v>2.827561790712139</v>
+        <v>1.403428374744919</v>
       </c>
       <c r="D22">
-        <v>0.4004646654716169</v>
+        <v>0.3611846657369142</v>
       </c>
       <c r="E22">
-        <v>2.954172667353617</v>
+        <v>0.07313509729022272</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.988730847298854</v>
+        <v>2.387664828809108</v>
       </c>
       <c r="H22">
-        <v>1.432525056071654</v>
+        <v>0.009924343430535752</v>
       </c>
       <c r="I22">
-        <v>0.9774894535230629</v>
+        <v>0.01467733709749552</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.286126246053158</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.125066712073632</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.1844040569866072</v>
+        <v>0.6784347768337682</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.6189249750846759</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.821467031326847</v>
+        <v>6.032423864879718</v>
       </c>
       <c r="C23">
-        <v>2.707960031706648</v>
+        <v>1.348711114760704</v>
       </c>
       <c r="D23">
-        <v>0.3834572176817375</v>
+        <v>0.3469995464093927</v>
       </c>
       <c r="E23">
-        <v>2.815124767651213</v>
+        <v>0.07068371458644318</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.854051125661755</v>
+        <v>2.310983944674348</v>
       </c>
       <c r="H23">
-        <v>1.373365352627189</v>
+        <v>0.008412083913077212</v>
       </c>
       <c r="I23">
-        <v>0.9364831980010848</v>
+        <v>0.01257906939767306</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.251882612730583</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.098168499670891</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.1999155499022045</v>
+        <v>0.6538800845716963</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.633085808262047</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.741576064004676</v>
+        <v>5.160205032367401</v>
       </c>
       <c r="C24">
-        <v>2.26985081083933</v>
+        <v>1.147624085607788</v>
       </c>
       <c r="D24">
-        <v>0.32115211123363</v>
+        <v>0.2941116080728676</v>
       </c>
       <c r="E24">
-        <v>2.316787073231225</v>
+        <v>0.06156194115580149</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.371165371945381</v>
+        <v>2.015488967705693</v>
       </c>
       <c r="H24">
-        <v>1.162412331190581</v>
+        <v>0.003743651360049838</v>
       </c>
       <c r="I24">
-        <v>0.7919612975388688</v>
+        <v>0.006384580293316233</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.119717634763788</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9918829690429547</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.2632477763793375</v>
+        <v>0.5618265777684712</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.6869945529226236</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.624138843757009</v>
+        <v>4.226560575373639</v>
       </c>
       <c r="C25">
-        <v>1.820714874051987</v>
+        <v>0.9358837326283549</v>
       </c>
       <c r="D25">
-        <v>0.257371863630155</v>
+        <v>0.2385629283149342</v>
       </c>
       <c r="E25">
-        <v>1.823015062369777</v>
+        <v>0.0521949673078197</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.894620349598</v>
+        <v>1.706164276520951</v>
       </c>
       <c r="H25">
-        <v>0.9564756942474446</v>
+        <v>0.0007414002427907906</v>
       </c>
       <c r="I25">
-        <v>0.6539338065099614</v>
+        <v>0.002295679155638553</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.9820568673447099</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8809458096480967</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.3397345202503788</v>
+        <v>0.4637167714525674</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.747730138960657</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.562339560576504</v>
+        <v>3.277698172620717</v>
       </c>
       <c r="C2">
-        <v>0.7786945604617301</v>
+        <v>0.8365424722631474</v>
       </c>
       <c r="D2">
-        <v>0.1986569383416281</v>
+        <v>0.1986223387370813</v>
       </c>
       <c r="E2">
-        <v>0.04574411681787272</v>
+        <v>0.04255099195881318</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.499636022123951</v>
+        <v>1.250211402677536</v>
       </c>
       <c r="H2">
-        <v>2.29991950151387E-06</v>
+        <v>8.609598371789318E-06</v>
       </c>
       <c r="I2">
-        <v>0.0004963289547998961</v>
+        <v>0.0006369313744940541</v>
       </c>
       <c r="J2">
-        <v>0.8915739533757687</v>
+        <v>0.8240129680683026</v>
       </c>
       <c r="K2">
-        <v>0.8111729460560753</v>
+        <v>0.6645069708515976</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3062799363136222</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2014903139491011</v>
       </c>
       <c r="N2">
-        <v>0.3918225843317629</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7963913996104193</v>
+        <v>0.4009651688694902</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7616986861880095</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.102108071646967</v>
+        <v>2.864120686545334</v>
       </c>
       <c r="C3">
-        <v>0.6762193713872193</v>
+        <v>0.7240245663562632</v>
       </c>
       <c r="D3">
-        <v>0.1720632600323739</v>
+        <v>0.1721570590602255</v>
       </c>
       <c r="E3">
-        <v>0.04137259742032207</v>
+        <v>0.03894900780221056</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.353919419201532</v>
+        <v>1.137803922481623</v>
       </c>
       <c r="H3">
-        <v>0.000280490904519537</v>
+        <v>0.0001789290212923511</v>
       </c>
       <c r="I3">
-        <v>0.0005785771598518785</v>
+        <v>0.0005558119976427633</v>
       </c>
       <c r="J3">
-        <v>0.8275443892314911</v>
+        <v>0.7704219524311355</v>
       </c>
       <c r="K3">
-        <v>0.75961654489452</v>
+        <v>0.6310324720988305</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3016761858045953</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1816239698268127</v>
       </c>
       <c r="N3">
-        <v>0.3435689561386539</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8294086014897193</v>
+        <v>0.3524271041336959</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7915946398831455</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.819502524922882</v>
+        <v>2.609367717851001</v>
       </c>
       <c r="C4">
-        <v>0.6139272294076932</v>
+        <v>0.6556066120467676</v>
       </c>
       <c r="D4">
-        <v>0.1559211510125209</v>
+        <v>0.1560743062722736</v>
       </c>
       <c r="E4">
-        <v>0.03871879575851267</v>
+        <v>0.03675088371894253</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.265401927327019</v>
+        <v>1.069517932490328</v>
       </c>
       <c r="H4">
-        <v>0.0008019426419982878</v>
+        <v>0.0005628631905507664</v>
       </c>
       <c r="I4">
-        <v>0.001070288047580803</v>
+        <v>0.0008416523125700515</v>
       </c>
       <c r="J4">
-        <v>0.7888012752850386</v>
+        <v>0.7374983304881511</v>
       </c>
       <c r="K4">
-        <v>0.7282906253811419</v>
+        <v>0.6105514444613718</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2985708332625876</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1703000508793266</v>
       </c>
       <c r="N4">
-        <v>0.3140365283360893</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.850151698222871</v>
+        <v>0.3226952293350109</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8105122280173802</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.702316899401012</v>
+        <v>2.503505862187296</v>
       </c>
       <c r="C5">
-        <v>0.5891372968274311</v>
+        <v>0.6283397413841101</v>
       </c>
       <c r="D5">
-        <v>0.149382541825787</v>
+        <v>0.149555872186383</v>
       </c>
       <c r="E5">
-        <v>0.0376242348168816</v>
+        <v>0.03584144085843155</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.227986835447311</v>
+        <v>1.040485602656517</v>
       </c>
       <c r="H5">
-        <v>0.001099459571735295</v>
+        <v>0.0007871874034384163</v>
       </c>
       <c r="I5">
-        <v>0.001446450448009617</v>
+        <v>0.001121171683031719</v>
       </c>
       <c r="J5">
-        <v>0.7723603229298419</v>
+        <v>0.7233584499560521</v>
       </c>
       <c r="K5">
-        <v>0.7146177039429418</v>
+        <v>0.6013817793414589</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2968706139955515</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1656356055660062</v>
       </c>
       <c r="N5">
-        <v>0.3020545076995376</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8584802055500376</v>
+        <v>0.3106260121879529</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8182837653077613</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.680433450139162</v>
+        <v>2.483685291771508</v>
       </c>
       <c r="C6">
-        <v>0.585592052022804</v>
+        <v>0.6243926332516878</v>
       </c>
       <c r="D6">
-        <v>0.148297134789928</v>
+        <v>0.1484737990051741</v>
       </c>
       <c r="E6">
-        <v>0.03742045524738202</v>
+        <v>0.03567190023647582</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.219889149613437</v>
+        <v>1.034008187551208</v>
       </c>
       <c r="H6">
-        <v>0.001156471816380122</v>
+        <v>0.000830441424010786</v>
       </c>
       <c r="I6">
-        <v>0.001610205618653993</v>
+        <v>0.001283411110483357</v>
       </c>
       <c r="J6">
-        <v>0.7686819255779369</v>
+        <v>0.7201386460693442</v>
       </c>
       <c r="K6">
-        <v>0.711155021071086</v>
+        <v>0.5988398417346161</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2961400099998528</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1645503221545219</v>
       </c>
       <c r="N6">
-        <v>0.3001086422731731</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8595820317698646</v>
+        <v>0.3086642248908618</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8194951990973225</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.811280998895484</v>
+        <v>2.598932815631031</v>
       </c>
       <c r="C7">
-        <v>0.6151353519172176</v>
+        <v>0.6551873279454412</v>
       </c>
       <c r="D7">
-        <v>0.1558270689576204</v>
+        <v>0.1559773270404747</v>
       </c>
       <c r="E7">
-        <v>0.03864295728661826</v>
+        <v>0.03670012709443782</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.259704532283223</v>
+        <v>1.06886469676958</v>
       </c>
       <c r="H7">
-        <v>0.0008117025909746278</v>
+        <v>0.0005728822163948433</v>
       </c>
       <c r="I7">
-        <v>0.001316742321158415</v>
+        <v>0.001131297515681418</v>
       </c>
       <c r="J7">
-        <v>0.7859645747494142</v>
+        <v>0.7255579206077698</v>
       </c>
       <c r="K7">
-        <v>0.7248330815699191</v>
+        <v>0.6063311874033417</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2967915795956486</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1689086804503646</v>
       </c>
       <c r="N7">
-        <v>0.3139920892109274</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8494920550043972</v>
+        <v>0.322462277936026</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8103168982809352</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.394722473680702</v>
+        <v>3.117351707005582</v>
       </c>
       <c r="C8">
-        <v>0.745274536471868</v>
+        <v>0.7942433718770872</v>
       </c>
       <c r="D8">
-        <v>0.1894360156605188</v>
+        <v>0.1894365449805093</v>
       </c>
       <c r="E8">
-        <v>0.04414701008873845</v>
+        <v>0.04127968307350338</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.442256601092993</v>
+        <v>1.219638913933267</v>
       </c>
       <c r="H8">
-        <v>2.346744268111323E-05</v>
+        <v>8.51000932144963E-06</v>
       </c>
       <c r="I8">
-        <v>0.0007062560669588436</v>
+        <v>0.0008670042988150328</v>
       </c>
       <c r="J8">
-        <v>0.8658928244861386</v>
+        <v>0.7714251032513744</v>
       </c>
       <c r="K8">
-        <v>0.7889702791960644</v>
+        <v>0.6449392108044378</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3014912370132024</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1916821368316413</v>
       </c>
       <c r="N8">
-        <v>0.3753167771541541</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8067244682867036</v>
+        <v>0.3837457622760354</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7715779826843097</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.552672903669077</v>
+        <v>4.150235412298628</v>
       </c>
       <c r="C9">
-        <v>1.003807284247813</v>
+        <v>1.076280304300127</v>
       </c>
       <c r="D9">
-        <v>0.2571197408995403</v>
+        <v>0.2566472216770421</v>
       </c>
       <c r="E9">
-        <v>0.05541439524579062</v>
+        <v>0.05050282425524255</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.818765122011911</v>
+        <v>1.514994291383033</v>
       </c>
       <c r="H9">
-        <v>0.001520087992560537</v>
+        <v>0.001303161415161513</v>
       </c>
       <c r="I9">
-        <v>0.003006206613294538</v>
+        <v>0.002823799400442084</v>
       </c>
       <c r="J9">
-        <v>1.032605991882434</v>
+        <v>0.8993079003052742</v>
       </c>
       <c r="K9">
-        <v>0.9238256885499965</v>
+        <v>0.7312816428804112</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3125718363373835</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2468191228651833</v>
       </c>
       <c r="N9">
-        <v>0.4964266810576419</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.728086074272869</v>
+        <v>0.5051853068054868</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7007693899789587</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.370788960352172</v>
+        <v>4.859621619816323</v>
       </c>
       <c r="C10">
-        <v>1.202979455728837</v>
+        <v>1.281978003459415</v>
       </c>
       <c r="D10">
-        <v>0.3082772155963909</v>
+        <v>0.3072604021782297</v>
       </c>
       <c r="E10">
-        <v>0.06266806182927986</v>
+        <v>0.05646951669501155</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.073635679987802</v>
+        <v>1.740445401723946</v>
       </c>
       <c r="H10">
-        <v>0.004828195224278797</v>
+        <v>0.003981263871119189</v>
       </c>
       <c r="I10">
-        <v>0.007516504782374867</v>
+        <v>0.006369458722017107</v>
       </c>
       <c r="J10">
-        <v>1.144614184615392</v>
+        <v>0.9286163701281396</v>
       </c>
       <c r="K10">
-        <v>1.008510293769838</v>
+        <v>0.7753566961000899</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3121267946827118</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2839916494869996</v>
       </c>
       <c r="N10">
-        <v>0.5643314730573081</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6703188346896134</v>
+        <v>0.5717506189861723</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6531114894582739</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.442810049732884</v>
+        <v>4.903474108608748</v>
       </c>
       <c r="C11">
-        <v>1.324694710783263</v>
+        <v>1.381718563465938</v>
       </c>
       <c r="D11">
-        <v>0.3313527706392563</v>
+        <v>0.3300882021667917</v>
       </c>
       <c r="E11">
-        <v>0.06003912076834617</v>
+        <v>0.05528806082693905</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.95082295386959</v>
+        <v>1.69466038778836</v>
       </c>
       <c r="H11">
-        <v>0.02359336098843912</v>
+        <v>0.02257532874839185</v>
       </c>
       <c r="I11">
-        <v>0.009381969777701116</v>
+        <v>0.00793580331128485</v>
       </c>
       <c r="J11">
-        <v>1.0766817963802</v>
+        <v>0.768366425513193</v>
       </c>
       <c r="K11">
-        <v>0.9106957360158674</v>
+        <v>0.6824969579093789</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2720816202373655</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2559522654824988</v>
       </c>
       <c r="N11">
-        <v>0.417498120206929</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6323707248494435</v>
+        <v>0.4210782770501282</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6511380542949574</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.33827374980757</v>
+        <v>4.809002654949211</v>
       </c>
       <c r="C12">
-        <v>1.383581094744898</v>
+        <v>1.425992446058956</v>
       </c>
       <c r="D12">
-        <v>0.3399028250485401</v>
+        <v>0.338579968542021</v>
       </c>
       <c r="E12">
-        <v>0.06465059713541876</v>
+        <v>0.06085485753953623</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.804097878219153</v>
+        <v>1.599398100239256</v>
       </c>
       <c r="H12">
-        <v>0.06193419852223769</v>
+        <v>0.06093436590256829</v>
       </c>
       <c r="I12">
-        <v>0.009490602743428056</v>
+        <v>0.007997158378056035</v>
       </c>
       <c r="J12">
-        <v>1.000803196125787</v>
+        <v>0.6694028244215673</v>
       </c>
       <c r="K12">
-        <v>0.8189799154472226</v>
+        <v>0.6074605226731506</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2435087898186694</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2286849434230191</v>
       </c>
       <c r="N12">
-        <v>0.2993598195759546</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6249474012028404</v>
+        <v>0.3010852549385987</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.670062554459939</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.08198451374642</v>
+        <v>4.600779503562819</v>
       </c>
       <c r="C13">
-        <v>1.399068847639796</v>
+        <v>1.436867543017854</v>
       </c>
       <c r="D13">
-        <v>0.3375643465222851</v>
+        <v>0.3363553004649305</v>
       </c>
       <c r="E13">
-        <v>0.07473717888364995</v>
+        <v>0.07202347183368119</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.622625207024385</v>
+        <v>1.443993898777023</v>
       </c>
       <c r="H13">
-        <v>0.1168983015391518</v>
+        <v>0.1160730966157786</v>
       </c>
       <c r="I13">
-        <v>0.008511134863512737</v>
+        <v>0.007279828625502915</v>
       </c>
       <c r="J13">
-        <v>0.9104099747344208</v>
+        <v>0.6184139348655435</v>
       </c>
       <c r="K13">
-        <v>0.721756476345611</v>
+        <v>0.5391452069651166</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.220340759570032</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2000554921564159</v>
       </c>
       <c r="N13">
-        <v>0.1974632960668572</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6384245259221686</v>
+        <v>0.1986407251465749</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7012139100838297</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.833595461745119</v>
+        <v>4.402069972989466</v>
       </c>
       <c r="C14">
-        <v>1.390793498542109</v>
+        <v>1.429817788465698</v>
       </c>
       <c r="D14">
-        <v>0.3310110537571944</v>
+        <v>0.3299534926431846</v>
       </c>
       <c r="E14">
-        <v>0.08524779960251827</v>
+        <v>0.0834969855871357</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.48028689488612</v>
+        <v>1.310181792509979</v>
       </c>
       <c r="H14">
-        <v>0.1655566834862583</v>
+        <v>0.1649026859858935</v>
       </c>
       <c r="I14">
-        <v>0.007482786470066394</v>
+        <v>0.006560875189384419</v>
       </c>
       <c r="J14">
-        <v>0.8407020624982806</v>
+        <v>0.6001929998775211</v>
       </c>
       <c r="K14">
-        <v>0.6515834726621819</v>
+        <v>0.4936400940898409</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2060169657850643</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1794256207228031</v>
       </c>
       <c r="N14">
-        <v>0.1369619414465859</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.658488870243886</v>
+        <v>0.138100119502397</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7283725332188951</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.739139081892972</v>
+        <v>4.32698670195515</v>
       </c>
       <c r="C15">
-        <v>1.380043896404061</v>
+        <v>1.421269085702988</v>
       </c>
       <c r="D15">
-        <v>0.3271023266819668</v>
+        <v>0.3261149232750853</v>
       </c>
       <c r="E15">
-        <v>0.087874279095427</v>
+        <v>0.08649689087368273</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.436475847759681</v>
+        <v>1.264970790631907</v>
       </c>
       <c r="H15">
-        <v>0.1777754342417524</v>
+        <v>0.1771923656455812</v>
       </c>
       <c r="I15">
-        <v>0.007127794167139712</v>
+        <v>0.006357498338419809</v>
       </c>
       <c r="J15">
-        <v>0.8197803459563886</v>
+        <v>0.6022907525824905</v>
       </c>
       <c r="K15">
-        <v>0.6320277480545187</v>
+        <v>0.4823336176847732</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2029262512546701</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1736272512594326</v>
       </c>
       <c r="N15">
-        <v>0.1232411349002831</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6664712565539865</v>
+        <v>0.1244943051859977</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7362287764172848</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.441751516790134</v>
+        <v>4.091448350910639</v>
       </c>
       <c r="C16">
-        <v>1.290125452581321</v>
+        <v>1.346314511409162</v>
       </c>
       <c r="D16">
-        <v>0.305194411643896</v>
+        <v>0.3045006641511634</v>
       </c>
       <c r="E16">
-        <v>0.08226960954368501</v>
+        <v>0.08199905653662753</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.363968602384119</v>
+        <v>1.164574451202839</v>
       </c>
       <c r="H16">
-        <v>0.163767537612074</v>
+        <v>0.1634531169532636</v>
       </c>
       <c r="I16">
-        <v>0.005385590888280944</v>
+        <v>0.005108493035774764</v>
       </c>
       <c r="J16">
-        <v>0.7898065904206817</v>
+        <v>0.6624383050164511</v>
       </c>
       <c r="K16">
-        <v>0.6154011039774048</v>
+        <v>0.4847420813199435</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2085405740241164</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1679481802848066</v>
       </c>
       <c r="N16">
-        <v>0.1185876743548349</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6854809680327634</v>
+        <v>0.1210514088055206</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7397111630987041</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.344637881449046</v>
+        <v>4.011382436480289</v>
       </c>
       <c r="C17">
-        <v>1.226043742773072</v>
+        <v>1.289883668809864</v>
       </c>
       <c r="D17">
-        <v>0.2919787586009051</v>
+        <v>0.291413325279791</v>
       </c>
       <c r="E17">
-        <v>0.07174438709411923</v>
+        <v>0.07149328778255537</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.382984709162628</v>
+        <v>1.162814904448624</v>
       </c>
       <c r="H17">
-        <v>0.1254055683991879</v>
+        <v>0.1251925220672945</v>
       </c>
       <c r="I17">
-        <v>0.004651477525539072</v>
+        <v>0.004571025912563087</v>
       </c>
       <c r="J17">
-        <v>0.8034372333038391</v>
+        <v>0.7105963782509406</v>
       </c>
       <c r="K17">
-        <v>0.63913761236239</v>
+        <v>0.5095034099666904</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2204469380610803</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1737053902369929</v>
       </c>
       <c r="N17">
-        <v>0.1446505687505635</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6889977018284341</v>
+        <v>0.1481752615668697</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7303725223939637</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.413241049367684</v>
+        <v>4.067066343305555</v>
       </c>
       <c r="C18">
-        <v>1.175381889854748</v>
+        <v>1.245471275513069</v>
       </c>
       <c r="D18">
-        <v>0.284594041049246</v>
+        <v>0.2840584122748737</v>
       </c>
       <c r="E18">
-        <v>0.05965770579343399</v>
+        <v>0.05854707180451335</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.488487564030521</v>
+        <v>1.240580762090275</v>
       </c>
       <c r="H18">
-        <v>0.072507391442997</v>
+        <v>0.07230754072032397</v>
       </c>
       <c r="I18">
-        <v>0.004281441151522181</v>
+        <v>0.004186173655047476</v>
       </c>
       <c r="J18">
-        <v>0.8588106922802581</v>
+        <v>0.7718210820642639</v>
       </c>
       <c r="K18">
-        <v>0.7046511971848091</v>
+        <v>0.5622376188206886</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2414916379877177</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1919132300123181</v>
       </c>
       <c r="N18">
-        <v>0.2104176967772062</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6846126519539339</v>
+        <v>0.2153178710776444</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7110492342997077</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.59875538666364</v>
+        <v>4.219756686652033</v>
       </c>
       <c r="C19">
-        <v>1.142699245407186</v>
+        <v>1.219009252137425</v>
       </c>
       <c r="D19">
-        <v>0.2823613442550084</v>
+        <v>0.2817838368529948</v>
       </c>
       <c r="E19">
-        <v>0.05299719839551553</v>
+        <v>0.05033541373083494</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.651645184227448</v>
+        <v>1.368835042169309</v>
       </c>
       <c r="H19">
-        <v>0.02770854140220536</v>
+        <v>0.02744832221822691</v>
       </c>
       <c r="I19">
-        <v>0.004713179024482983</v>
+        <v>0.004561563929695645</v>
       </c>
       <c r="J19">
-        <v>0.9413765624204018</v>
+        <v>0.8432839625651525</v>
       </c>
       <c r="K19">
-        <v>0.7978176717735295</v>
+        <v>0.6331522696160548</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2681551621457459</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2186071710836401</v>
       </c>
       <c r="N19">
-        <v>0.3196207969711367</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6827230841720997</v>
+        <v>0.3261766021315111</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6919783142215898</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.132664743333521</v>
+        <v>4.663540549100389</v>
       </c>
       <c r="C20">
-        <v>1.155299534481003</v>
+        <v>1.238776100624591</v>
       </c>
       <c r="D20">
-        <v>0.2946887865748806</v>
+        <v>0.2938573679451508</v>
       </c>
       <c r="E20">
-        <v>0.06046754451437852</v>
+        <v>0.05463169558238601</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.988487600462321</v>
+        <v>1.64954952562897</v>
       </c>
       <c r="H20">
-        <v>0.003741190341921996</v>
+        <v>0.003123199185538716</v>
       </c>
       <c r="I20">
-        <v>0.006767383812166905</v>
+        <v>0.006138804649697072</v>
       </c>
       <c r="J20">
-        <v>1.106066917671455</v>
+        <v>0.946135093804628</v>
       </c>
       <c r="K20">
-        <v>0.9751259204493294</v>
+        <v>0.759376316674242</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3106984814800526</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2722681327264098</v>
       </c>
       <c r="N20">
-        <v>0.5458719109919912</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6833741182368742</v>
+        <v>0.5543294540829891</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6654412135175942</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.818184523395473</v>
+        <v>5.196418438648266</v>
       </c>
       <c r="C21">
-        <v>1.304713118092764</v>
+        <v>1.361932410647682</v>
       </c>
       <c r="D21">
-        <v>0.3346585948279142</v>
+        <v>0.3331889112040614</v>
       </c>
       <c r="E21">
-        <v>0.06842236346349928</v>
+        <v>0.06138443471566823</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.232621630159599</v>
+        <v>1.948351767593579</v>
       </c>
       <c r="H21">
-        <v>0.00715269259474216</v>
+        <v>0.005690020646415328</v>
       </c>
       <c r="I21">
-        <v>0.01131465118931718</v>
+        <v>0.009391445522464181</v>
       </c>
       <c r="J21">
-        <v>1.21629058118603</v>
+        <v>0.821581510792015</v>
       </c>
       <c r="K21">
-        <v>1.067463458788964</v>
+        <v>0.7889639820308574</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3087001162430667</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3001408544187001</v>
       </c>
       <c r="N21">
-        <v>0.6327520959817292</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6443318649184366</v>
+        <v>0.6367093487368578</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6308991179593839</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.260282435953457</v>
+        <v>5.533480126964719</v>
       </c>
       <c r="C22">
-        <v>1.403428374744919</v>
+        <v>1.440013734229296</v>
       </c>
       <c r="D22">
-        <v>0.3611846657369142</v>
+        <v>0.3592293551283916</v>
       </c>
       <c r="E22">
-        <v>0.07313509729022272</v>
+        <v>0.06548470314343913</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.387664828809108</v>
+        <v>2.151700660431942</v>
       </c>
       <c r="H22">
-        <v>0.009924343430535752</v>
+        <v>0.007752456630694571</v>
       </c>
       <c r="I22">
-        <v>0.01467733709749552</v>
+        <v>0.01159482267672374</v>
       </c>
       <c r="J22">
-        <v>1.286126246053158</v>
+        <v>0.7344504771809852</v>
       </c>
       <c r="K22">
-        <v>1.125066712073632</v>
+        <v>0.8041168236569405</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3058451312114983</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3172515071743192</v>
       </c>
       <c r="N22">
-        <v>0.6784347768337682</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6189249750846759</v>
+        <v>0.678875726307794</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.61009132958797</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.032423864879718</v>
+        <v>5.369171363729151</v>
       </c>
       <c r="C23">
-        <v>1.348711114760704</v>
+        <v>1.400841649525717</v>
       </c>
       <c r="D23">
-        <v>0.3469995464093927</v>
+        <v>0.3453243506109089</v>
       </c>
       <c r="E23">
-        <v>0.07068371458644318</v>
+        <v>0.06329510585589571</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.310983944674348</v>
+        <v>2.035711212960649</v>
       </c>
       <c r="H23">
-        <v>0.008412083913077212</v>
+        <v>0.0066473456599348</v>
       </c>
       <c r="I23">
-        <v>0.01257906939767306</v>
+        <v>0.01009135294886931</v>
       </c>
       <c r="J23">
-        <v>1.251882612730583</v>
+        <v>0.8036076833768391</v>
       </c>
       <c r="K23">
-        <v>1.098168499670891</v>
+        <v>0.8025394543503808</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3096314403990235</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.310725533572942</v>
       </c>
       <c r="N23">
-        <v>0.6538800845716963</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.633085808262047</v>
+        <v>0.6567299151404313</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6204295257212493</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.160205032367401</v>
+        <v>4.687195838466835</v>
       </c>
       <c r="C24">
-        <v>1.147624085607788</v>
+        <v>1.231770977708152</v>
       </c>
       <c r="D24">
-        <v>0.2941116080728676</v>
+        <v>0.2932763014844824</v>
       </c>
       <c r="E24">
-        <v>0.06156194115580149</v>
+        <v>0.05549506236377511</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.015488967705693</v>
+        <v>1.67091369379483</v>
       </c>
       <c r="H24">
-        <v>0.003743651360049838</v>
+        <v>0.003109874737845075</v>
       </c>
       <c r="I24">
-        <v>0.006384580293316233</v>
+        <v>0.005637865584278146</v>
       </c>
       <c r="J24">
-        <v>1.119717634763788</v>
+        <v>0.9591590597132154</v>
       </c>
       <c r="K24">
-        <v>0.9918829690429547</v>
+        <v>0.7727176402767455</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3157505338954252</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2772477682826775</v>
       </c>
       <c r="N24">
-        <v>0.5618265777684712</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6869945529226236</v>
+        <v>0.5704994947404032</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6652977491460046</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.226560575373639</v>
+        <v>3.864168533584404</v>
       </c>
       <c r="C25">
-        <v>0.9358837326283549</v>
+        <v>1.004423614723549</v>
       </c>
       <c r="D25">
-        <v>0.2385629283149342</v>
+        <v>0.2382538337183462</v>
       </c>
       <c r="E25">
-        <v>0.0521949673078197</v>
+        <v>0.04786226935687887</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.706164276520951</v>
+        <v>1.419592685467137</v>
       </c>
       <c r="H25">
-        <v>0.0007414002427907906</v>
+        <v>0.0006614440986982828</v>
       </c>
       <c r="I25">
-        <v>0.002295679155638553</v>
+        <v>0.002417208116447078</v>
       </c>
       <c r="J25">
-        <v>0.9820568673447099</v>
+        <v>0.8737238206631446</v>
       </c>
       <c r="K25">
-        <v>0.8809458096480967</v>
+        <v>0.7046699794495836</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3086178877242247</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2299362225679005</v>
       </c>
       <c r="N25">
-        <v>0.4637167714525674</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.747730138960657</v>
+        <v>0.4726906118596332</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7193800404748547</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
